--- a/MappingLiPD-Le.xlsx
+++ b/MappingLiPD-Le.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="0" windowWidth="20200" windowHeight="11900"/>
+    <workbookView xWindow="600" yWindow="40" windowWidth="20200" windowHeight="11900"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="300">
   <si>
     <t>Linked Earth Prop</t>
   </si>
@@ -922,9 +922,6 @@
   </si>
   <si>
     <t>ask nick</t>
-  </si>
-  <si>
-    <t>err</t>
   </si>
 </sst>
 </file>
@@ -1313,7 +1310,7 @@
   <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B115" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2751,9 +2748,7 @@
       <c r="B138" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>300</v>
-      </c>
+      <c r="C138" s="1"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
